--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192722</v>
+        <v>507846.9793192724</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309997</v>
+        <v>5571875.219309998</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +725,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1184,13 +1184,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1263,10 +1263,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>150.2142914581905</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1607,70 +1607,70 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
+        <v>232.8330857361503</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1862,10 +1862,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1929,22 +1929,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2330,58 +2330,58 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>161.1908134018701</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2460,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,61 +2567,61 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,22 +2634,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>29.90723668598428</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>89.98138655216532</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,16 +2880,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>127.4509717989172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>62.30512642017687</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3029,65 +3029,65 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,19 +3114,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>166.8665723134151</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,64 +3275,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4.496171550776663</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>105.0448050850801</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>204.7443346271609</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,70 +3737,70 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>62.82409118961541</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.00537765493296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>72.84464978374359</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4364,16 +4364,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4446,13 +4446,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4884,16 +4884,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4911,22 +4911,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
         <v>31.35113235729608</v>
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E12" t="n">
         <v>508.9694238887622</v>
@@ -5127,10 +5127,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>711.1560185299961</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5218,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5358,19 +5358,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5452,25 +5452,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5498,19 +5498,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5707,10 +5707,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I22" t="n">
         <v>19.28114311021272</v>
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6306,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>873.1668660640046</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6403,31 +6403,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6506,7 +6506,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>481.7099827492369</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C30" t="n">
-        <v>307.2569534681098</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="D30" t="n">
-        <v>307.2569534681098</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="E30" t="n">
-        <v>148.0194984626543</v>
+        <v>367.480997632204</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>220.946439659089</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>82.21561424170451</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>82.21561424170451</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y30" t="n">
-        <v>481.7099827492369</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
         <v>262.7299197543128</v>
@@ -6689,7 +6689,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>520.918188268317</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>520.918188268317</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>520.918188268317</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>520.918188268317</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>520.918188268317</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
     </row>
     <row r="34">
@@ -6847,10 +6847,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
         <v>829.5248650203655</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7023,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>609.3459713618265</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>401.4944711562937</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W38" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X38" t="n">
-        <v>40.6788758079141</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.6244618379714</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C39" t="n">
-        <v>284.6244618379714</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="X39" t="n">
-        <v>492.3847606029253</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.6244618379714</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7369,13 +7369,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F41" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="E41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>571.6739692052849</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y42" t="n">
-        <v>720.6083788665362</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="43">
@@ -7594,16 +7594,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C44" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D44" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E44" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F44" t="n">
-        <v>487.4018176583718</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G44" t="n">
-        <v>243.9530410142718</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="H44" t="n">
         <v>243.9530410142718</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y44" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C45" t="n">
-        <v>817.1412885554689</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D45" t="n">
-        <v>668.2068788942177</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>353.5194236555479</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>206.9848656824329</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7728,10 +7728,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
         <v>486.8488635328713</v>
@@ -7764,13 +7764,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y45" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,19 +8061,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,7 +9021,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -22562,10 +22562,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22613,7 +22613,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,10 +22744,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22793,13 +22793,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22957,13 +22957,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23072,13 +23072,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23103,16 +23103,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23151,10 +23151,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23194,7 +23194,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23270,13 +23270,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23337,13 +23337,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>21.46887964564729</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23458,7 +23458,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>46.33425578299913</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23495,25 +23495,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>152.9875061275656</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>121.8499558845326</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23738,7 +23738,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23750,10 +23750,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23817,22 +23817,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,16 +23862,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>179.1139601010482</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23947,13 +23947,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,10 +24096,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>24.98494807699674</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,28 +24248,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>64.75056867910467</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,22 +24522,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>142.8012623023315</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24573,16 +24573,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>110.1833421426563</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318533</v>
       </c>
       <c r="E29" t="n">
         <v>140.9160811946027</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,16 +24768,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>17.6182405944667</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>27.09150643123821</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24917,22 +24917,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25002,19 +25002,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>33.29815638140653</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,10 +25163,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,22 +25205,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,25 +25233,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>153.1489089046243</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>61.53338767417523</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25354,13 +25354,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25448,7 +25448,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>87.49420279090882</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>365.0541832853293</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,10 +25473,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>42.40026047955867</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,22 +25518,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>28.0562525222644</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25564,13 +25564,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>122.3993850387443</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>83.83962992671066</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>94.82098926578553</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,10 +25770,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25874,13 +25874,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>236.4659043839653</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.2325610011206</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,10 +25944,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25956,13 +25956,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>64.49886737946704</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26004,10 +26004,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879943</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421401</v>
+        <v>-29533.82927421397</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733375</v>
+        <v>51235.60225733377</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733373</v>
+        <v>51235.60225733374</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="G6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822748</v>
+        <v>21803.25965822754</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733369</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="M6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733377</v>
+        <v>84863.20225733379</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35495,13 +35495,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N12" t="n">
         <v>226.4350751681936</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,7 +35741,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192724</v>
+        <v>509551.7353335388</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>184.6308886574542</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>35.00246782997241</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1379,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>230.8744955960827</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
@@ -1449,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>150.2142914581905</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>232.8330857361503</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1929,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>21.0507685937734</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>135.4141600157168</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2223,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2278,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="24">
@@ -2445,19 +2447,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>161.1908134018701</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,55 +2475,55 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>89.98138655216532</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,64 +2715,64 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>62.30512642017687</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2950,58 +2952,58 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,61 +3043,61 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,16 +3161,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>166.8665723134151</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3205,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>4.496171550776663</v>
+        <v>90.54000464002216</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>240.2580556792261</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3588,13 +3590,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>204.7443346271609</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.1422055959472</v>
       </c>
     </row>
     <row r="40">
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>202.2946864288972</v>
       </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.69355372315668</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>182.6425183304815</v>
       </c>
     </row>
     <row r="43">
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4062,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>66.11861112998605</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>72.84464978374359</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4113,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4150,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4361,7 +4363,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
         <v>749.627473042513</v>
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4410,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>777.5613083818946</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4512,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>259.0600686093459</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>259.0600686093459</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>259.0600686093459</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4887,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4954,13 +4956,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5027,7 +5029,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
         <v>487.4018176583718</v>
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>508.9694238887622</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>508.9694238887622</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
         <v>508.9694238887622</v>
@@ -5121,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>711.1560185299961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C14" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D14" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5361,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5452,25 +5454,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5495,22 +5497,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,10 +5603,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>668.2068788942177</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>668.2068788942177</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>668.2068788942177</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,19 +5694,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5832,43 +5834,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
         <v>19.28114311021272</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6093,16 +6095,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W24" t="n">
         <v>19.28114311021272</v>
@@ -6169,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
         <v>304.2053859195205</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>873.1668660640046</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>644.9432478003937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>644.9432478003937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>401.4944711562937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>401.4944711562937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>367.480997632204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>220.946439659089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>82.21561424170451</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>82.21561424170451</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,7 +6548,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
         <v>304.2053859195205</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>526.7184526376595</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>526.7184526376595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6679,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6728,19 +6730,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W32" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
         <v>262.7299197543128</v>
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>520.918188268317</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>520.918188268317</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>520.918188268317</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K34" t="n">
         <v>829.5248650203655</v>
@@ -6874,34 +6876,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.7568786610034</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C36" t="n">
-        <v>512.7568786610034</v>
+        <v>258.02438387755</v>
       </c>
       <c r="D36" t="n">
-        <v>512.7568786610034</v>
+        <v>258.02438387755</v>
       </c>
       <c r="E36" t="n">
-        <v>508.2152912359765</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.7568786610034</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
         <v>829.5248650203655</v>
@@ -7120,25 +7122,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V38" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W38" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X38" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>168.215552771464</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C39" t="n">
-        <v>168.215552771464</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7287,16 +7289,16 @@
         <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>583.8273517419507</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>583.8273517419507</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>375.9758515364179</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>168.215552771464</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7436,19 +7438,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="T41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W41" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="T41" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U41" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V41" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W41" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
         <v>506.1786963984129</v>
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,16 +7496,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>518.4217842253022</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>310.5702840197694</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>102.8099852548154</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="43">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D44" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E44" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F44" t="n">
-        <v>591.4512093066566</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G44" t="n">
-        <v>348.0024326625565</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H44" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I44" t="n">
         <v>31.35113235729608</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>512.7568786610034</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C45" t="n">
-        <v>512.7568786610034</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D45" t="n">
-        <v>512.7568786610034</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E45" t="n">
-        <v>353.5194236555479</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>206.9848656824329</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
         <v>133.4044113554191</v>
@@ -7734,16 +7736,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7761,16 +7763,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.7568786610034</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,10 +8780,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9009,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,7 +9023,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9249,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10194,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,10 +10442,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11142,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11382,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22601,10 +22603,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>67.06409450346541</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22802,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23066,13 +23068,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23100,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>102.3410493332382</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23267,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G11" t="n">
-        <v>184.4282419190523</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
@@ -23337,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>21.46887964564729</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.33425578299913</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23495,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>121.8499558845326</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23628,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23735,25 +23737,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23817,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>179.1139601010482</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,13 +24025,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>64.75056867910476</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24145,7 +24147,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24166,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24248,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="24">
@@ -24333,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>64.75056867910467</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24491,22 +24493,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>110.1833421426563</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,31 +24679,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>154.3469453318533</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24765,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>27.09150643123821</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24810,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24917,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25002,19 +25004,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25047,16 +25049,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>33.29815638140653</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25093,13 +25095,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,10 +25116,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25169,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25205,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25219,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>153.1489089046243</v>
+        <v>67.10507581537878</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25327,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>305.6710867513173</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>87.49420279090882</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25476,13 +25478,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25527,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>28.0562525222644</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.54049018135711</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25676,7 +25678,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.83962992671066</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>23.0401774468229</v>
       </c>
     </row>
     <row r="43">
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>236.4659043839653</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25950,13 +25952,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>91.52646932541489</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>64.49886737946704</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26001,13 +26003,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="D2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="H2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="L2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="M2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="N2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879943</v>
+        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421397</v>
+        <v>-29533.82927421396</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733377</v>
+        <v>51235.60225733378</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733374</v>
+        <v>51235.6022573337</v>
       </c>
       <c r="E6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="F6" t="n">
         <v>84863.20225733375</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>84863.20225733372</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>84863.20225733373</v>
       </c>
-      <c r="H6" t="n">
-        <v>84863.20225733372</v>
-      </c>
       <c r="I6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822754</v>
+        <v>21803.25965822748</v>
       </c>
       <c r="K6" t="n">
         <v>84863.20225733372</v>
       </c>
       <c r="L6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="M6" t="n">
         <v>84863.20225733376</v>
       </c>
-      <c r="M6" t="n">
-        <v>84863.20225733373</v>
-      </c>
       <c r="N6" t="n">
-        <v>84863.20225733377</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733379</v>
+        <v>84863.20225733372</v>
       </c>
     </row>
   </sheetData>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,10 +35500,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35729,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,7 +35743,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37081,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,10 +37162,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37862,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38102,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.7353335388</v>
+        <v>407299.4256466022</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309998</v>
+        <v>5571875.219309997</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,23 +895,23 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>157.5129972853333</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>139.3136372594269</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,10 +1466,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>212.285385643442</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,10 +1751,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,23 +1843,23 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.3261858846177895</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2459,10 +2459,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2572,52 +2572,52 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>21.18375537072436</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="28">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,64 +2794,64 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="34">
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3228,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>90.54000464002216</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>154.4270491265585</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3441,37 +3441,37 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>50.46697834767983</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.1422055959472</v>
+        <v>61.68827609322837</v>
       </c>
     </row>
     <row r="40">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>182.6425183304815</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="43">
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>208.2638363878123</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I44" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>66.11861112998605</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>34.66067414728042</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="3">
@@ -4421,10 +4421,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,25 +4433,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>901.2946886937524</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C6" t="n">
-        <v>726.8416594126254</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D6" t="n">
-        <v>577.9072497513741</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G6" t="n">
         <v>133.4044113554191</v>
@@ -4658,40 +4658,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,10 +4895,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9531178486834</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9531178486834</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9531178486834</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="10">
@@ -4947,22 +4947,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5129,10 +5129,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>262.7299197543128</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5363,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>19.61062380174585</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>19.61062380174585</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>19.61062380174585</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>19.61062380174585</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="19">
@@ -5694,13 +5694,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="24">
@@ -6077,37 +6077,37 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,16 +6247,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
         <v>506.1786963984129</v>
@@ -6265,13 +6265,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6308,13 +6308,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6408,16 +6408,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>509.4769954460863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>266.0282188019862</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>22.57944215788615</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>22.57944215788615</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>22.57944215788615</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>22.57944215788615</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>752.9257720901863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W29" t="n">
-        <v>752.9257720901863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>752.9257720901863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>509.4769954460863</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6575,16 +6575,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C32" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,22 +6721,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
@@ -6745,7 +6745,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6973,16 +6973,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y35" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>432.4774131586771</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C36" t="n">
-        <v>258.02438387755</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D36" t="n">
-        <v>258.02438387755</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="V36" t="n">
-        <v>432.4774131586771</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="W36" t="n">
-        <v>432.4774131586771</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X36" t="n">
-        <v>432.4774131586771</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y36" t="n">
-        <v>432.4774131586771</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>509.4769954460863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>509.4769954460863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D38" t="n">
-        <v>509.4769954460863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E38" t="n">
-        <v>266.0282188019862</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F38" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>509.4769954460863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>509.4769954460863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>509.4769954460863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y38" t="n">
-        <v>509.4769954460863</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X39" t="n">
-        <v>790.6398109613051</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y39" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7432,25 +7432,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
         <v>506.1786963984129</v>
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
         <v>20.03527576299844</v>
@@ -7499,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y42" t="n">
-        <v>362.7036420641935</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H44" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483368</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483368</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483368</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483368</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483368</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483368</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057911</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740484</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994836</v>
       </c>
       <c r="X45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="Y45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8069,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10433,13 +10433,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>241.9453110519922</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22549,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>114.9113927102481</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,13 +22919,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23077,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>14.17017381850454</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>18.33144319597409</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23399,7 +23399,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23554,10 +23554,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>115.4668728266929</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,7 +23630,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>270.4049153562469</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>89.07044696679729</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23867,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23934,16 +23934,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24028,10 +24028,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7557820643452</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180149</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24256,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24460,7 +24460,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
-        <v>230.1618975371121</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24527,22 +24527,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>318.0150222981159</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24815,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24891,10 +24891,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="34">
@@ -25098,10 +25098,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,10 +25116,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25213,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,25 +25235,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>67.10507581537878</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>71.51433295441635</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>332.2668633158007</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>305.6710867513173</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25450,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.54049018135711</v>
+        <v>143.994419684076</v>
       </c>
     </row>
     <row r="40">
@@ -25599,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,16 +25757,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>23.0401774468229</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>174.4700052756683</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I44" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,16 +25952,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>91.52646932541489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25997,19 +25997,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1123110561971</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421396</v>
+        <v>-41751.83989425446</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733378</v>
+        <v>39017.59163729326</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.6022573337</v>
+        <v>39017.59163729328</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822748</v>
+        <v>9585.249038187028</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729323</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729328</v>
       </c>
     </row>
   </sheetData>
@@ -26831,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34789,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35731,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407299.4256466022</v>
+        <v>499301.2742297006</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309997</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -664,17 +664,17 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.05769526855297</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>225.0039640932086</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.43212445296252</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157.5129972853333</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2248260146254</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,64 +1299,64 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>139.3136372594269</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>161.1908134018701</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
@@ -1548,55 +1548,55 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>111.7765806969846</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3261858846177895</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1979,19 +1979,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>30.9518491405796</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="24">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2611,19 +2611,19 @@
         <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>95.49935363464796</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V29" t="n">
-        <v>9.737236172019017</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.79900896488263</v>
+        <v>90.16983368421225</v>
       </c>
     </row>
     <row r="31">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>154.4270491265585</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.46697834767983</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>61.68827609322837</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,25 +3745,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>16.33708568323827</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>208.2638363878123</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4118,10 +4118,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.014288877659</v>
+        <v>69.90197782146217</v>
       </c>
       <c r="X45" t="n">
-        <v>34.66067414728042</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,22 +4433,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X3" t="n">
         <v>227.0414418751666</v>
@@ -4527,10 +4527,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>156.0631229240681</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>156.0631229240681</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4746,22 +4746,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4783,10 +4783,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>804.9531178486834</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>804.9531178486834</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>804.9531178486834</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>569.8010096169406</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>569.8010096169406</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>361.9495094114078</v>
+        <v>563.8156253164095</v>
       </c>
       <c r="Y9" t="n">
-        <v>361.9495094114078</v>
+        <v>563.8156253164095</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -5004,10 +5004,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,16 +5129,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U12" t="n">
-        <v>689.4702815141908</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V12" t="n">
-        <v>689.4702815141908</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W12" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
@@ -5244,7 +5244,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5360,13 +5360,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W15" t="n">
-        <v>384.2867411876791</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>384.2867411876791</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5424,13 +5424,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>376.1934816808115</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W17" t="n">
-        <v>376.1934816808115</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X17" t="n">
-        <v>376.1934816808115</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y17" t="n">
-        <v>376.1934816808115</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>178.8480788072013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>178.8480788072013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.61062380174585</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.61062380174585</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.61062380174585</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.61062380174585</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>588.4532163200711</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>353.3011080883284</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W18" t="n">
-        <v>353.3011080883284</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X18" t="n">
-        <v>353.3011080883284</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y18" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5697,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C20" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V20" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W20" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X20" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6098,19 +6098,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6259,19 +6259,19 @@
         <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y26" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6408,7 +6408,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6648,10 +6648,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,10 +6785,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6891,19 +6891,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6958,13 +6958,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
         <v>749.627473042513</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>605.8836425597472</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>605.8836425597472</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>362.4348659156472</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>362.4348659156472</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>290.1981659616912</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>82.34666575615842</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7362,7 +7362,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>55.04605772994853</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X42" t="n">
-        <v>55.04605772994853</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483368</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483368</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483368</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>728.6161971483368</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>728.6161971483368</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>728.6161971483368</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950733</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950733</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>712.0191193839557</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.870560869402</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057911</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>298.4948343740484</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W45" t="n">
-        <v>55.04605772994836</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>244.7225752110828</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,13 +10433,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519922</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22552,16 +22552,16 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.10013888409016</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>26.69101906771101</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288.3233546697745</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>114.9113927102481</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>14.17017381850454</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>50.54815918885205</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.6722207847417</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23345,13 +23345,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>18.33144319597409</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>64.75056867910467</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>33.29263169639931</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>270.4049153562469</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.07044696679729</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>174.8211360628979</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23937,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>127.7557820643452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24223,10 +24223,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24256,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="24">
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24499,19 +24499,19 @@
         <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24648,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24700,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V29" t="n">
-        <v>318.0150222981159</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>175.8836868124217</v>
+        <v>115.5128620930921</v>
       </c>
     </row>
     <row r="31">
@@ -24888,13 +24888,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24937,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>71.51433295441635</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.2668633158007</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>143.994419684076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25602,10 +25602,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,25 +25633,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>271.0893844545596</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>131.1079798814005</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>171.0220216300238</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>174.4700052756683</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326061</v>
+        <v>181.7930053394574</v>
       </c>
       <c r="X45" t="n">
-        <v>171.1123110561971</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="D2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="F2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="D2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="M2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="O2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879939</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41751.83989425446</v>
+        <v>-30755.63033621801</v>
       </c>
       <c r="C6" t="n">
-        <v>39017.59163729326</v>
+        <v>50013.80119532966</v>
       </c>
       <c r="D6" t="n">
-        <v>39017.59163729328</v>
+        <v>50013.80119532969</v>
       </c>
       <c r="E6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532974</v>
       </c>
       <c r="F6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="G6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532973</v>
       </c>
       <c r="H6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="I6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="J6" t="n">
-        <v>9585.249038187028</v>
+        <v>20581.45859622346</v>
       </c>
       <c r="K6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="L6" t="n">
-        <v>72645.19163729323</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="M6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="N6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532966</v>
       </c>
       <c r="O6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="P6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.4011953297</v>
       </c>
     </row>
   </sheetData>
@@ -26831,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35020,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35181,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>113.3808631277494</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997385</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
